--- a/Prism Controller/Test File Builder.xlsx
+++ b/Prism Controller/Test File Builder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preco\OneDrive\Documents\GitHub\Labview-Foot-Detect\Prism Controller\Test Runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preco\OneDrive\Documents\GitHub\Labview-Foot-Detect\Prism Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E3042-6655-4556-A1A3-730AEE024069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C8ADF7-D663-45BA-B6D7-E80E17FC6399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
+    <workbookView xWindow="3492" yWindow="504" windowWidth="16170" windowHeight="11682" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
   </bookViews>
   <sheets>
     <sheet name="All Speed and Inc - 14 hrs" sheetId="1" r:id="rId1"/>
@@ -386,15 +386,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23C4E3-A558-4321-84DE-C1C6DB982921}">
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A112" sqref="A58:D112"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B1">
         <v>300</v>
@@ -403,12 +403,12 @@
         <v>0</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>300</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>300</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B9">
         <v>300</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>300</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B11">
         <v>300</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B12">
         <v>300</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <v>300</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>300</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>300</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>300</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>300</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>300</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>300</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>300</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B30">
         <v>300</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>300</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>300</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>300</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>300</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>300</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>300</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>300</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>300</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>300</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B41">
         <v>300</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>300</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>300</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>300</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B45">
         <v>300</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>300</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>300</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>300</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B49">
         <v>300</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>300</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>300</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>300</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>300</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B54">
         <v>300</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B55">
         <v>300</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>300</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>300</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>300</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>300</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>300</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B61">
         <v>300</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B62">
         <v>300</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B63">
         <v>300</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B64">
         <v>300</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>300</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B66">
         <v>300</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>300</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>300</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B69">
         <v>300</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>300</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>300</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>300</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>300</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>300</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>300</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>300</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B77">
         <v>300</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B78">
         <v>300</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B79">
         <v>300</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B80">
         <v>300</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B81">
         <v>300</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B82">
         <v>300</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B83">
         <v>300</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B84">
         <v>300</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B85">
         <v>300</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B86">
         <v>300</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B87">
         <v>300</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B88">
         <v>300</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B89">
         <v>300</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B90">
         <v>300</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B91">
         <v>300</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B92">
         <v>300</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B93">
         <v>300</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B94">
         <v>300</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B95">
         <v>300</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B96">
         <v>300</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B97">
         <v>300</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B98">
         <v>300</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B99">
         <v>300</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B100">
         <v>300</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B101">
         <v>300</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B102">
         <v>300</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B103">
         <v>300</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B104">
         <v>300</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B105">
         <v>300</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B106">
         <v>300</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B107">
         <v>300</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B108">
         <v>300</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B109">
         <v>300</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B110">
         <v>300</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <v>300</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B112">
         <v>300</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B113">
         <v>300</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B114">
         <v>300</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B115">
         <v>300</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B116">
         <v>300</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B117">
         <v>300</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B118">
         <v>300</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B119">
         <v>300</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B120">
         <v>300</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B121">
         <v>300</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B122">
         <v>300</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B123">
         <v>300</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B124">
         <v>300</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B125">
         <v>300</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B126">
         <v>300</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B127">
         <v>300</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B128">
         <v>300</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B129">
         <v>300</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B130">
         <v>300</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B131">
         <v>300</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B132">
         <v>300</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B133">
         <v>300</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B134">
         <v>300</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B135">
         <v>300</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B136">
         <v>300</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B137">
         <v>300</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B138">
         <v>300</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B139">
         <v>300</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B140">
         <v>300</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B141">
         <v>300</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B142">
         <v>300</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B143">
         <v>300</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B144">
         <v>300</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B145">
         <v>300</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B146">
         <v>300</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B147">
         <v>300</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B148">
         <v>300</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B149">
         <v>300</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B150">
         <v>300</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B151">
         <v>300</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B152">
         <v>300</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B153">
         <v>300</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B154">
         <v>300</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B155">
         <v>300</v>
@@ -2559,12 +2559,12 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B156">
         <v>300</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B157">
         <v>300</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B158">
         <v>300</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B159">
         <v>300</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B160">
         <v>300</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B161">
         <v>300</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B162">
         <v>300</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B163">
         <v>300</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B164">
         <v>300</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B165">
         <v>300</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B166">
         <v>300</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B167">
         <v>300</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B168">
         <v>300</v>
@@ -2745,6 +2745,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D168">
+    <sortCondition descending="1" ref="A1:A168"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5216,20 +5219,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA04BFE6-58C5-4684-96F8-6D3A5E15647A}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -5240,13 +5243,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -5254,13 +5257,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -5268,13 +5271,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -5282,13 +5285,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -5296,13 +5299,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -5310,13 +5313,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5324,13 +5327,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5338,13 +5341,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -5352,13 +5355,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -5366,13 +5369,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -5380,13 +5383,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -5394,13 +5397,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -5408,13 +5411,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -5422,13 +5425,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5436,13 +5439,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -5450,13 +5453,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -5464,13 +5467,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C18">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -5478,13 +5481,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C19">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -5492,2185 +5495,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>180</v>
-      </c>
-      <c r="C21">
-        <v>105</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>180</v>
-      </c>
-      <c r="C22">
-        <v>110</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>180</v>
-      </c>
-      <c r="C23">
-        <v>115</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>180</v>
-      </c>
-      <c r="C24">
-        <v>120</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>180</v>
-      </c>
-      <c r="C25">
-        <v>125</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <v>180</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>55</v>
-      </c>
-      <c r="B27">
-        <v>180</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>55</v>
-      </c>
-      <c r="B28">
-        <v>180</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>55</v>
-      </c>
-      <c r="B29">
-        <v>180</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>55</v>
-      </c>
-      <c r="B30">
-        <v>180</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>55</v>
-      </c>
-      <c r="B31">
-        <v>180</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>55</v>
-      </c>
-      <c r="B32">
-        <v>180</v>
-      </c>
-      <c r="C32">
-        <v>35</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>55</v>
-      </c>
-      <c r="B33">
-        <v>180</v>
-      </c>
-      <c r="C33">
-        <v>40</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>55</v>
-      </c>
-      <c r="B34">
-        <v>180</v>
-      </c>
-      <c r="C34">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <v>55</v>
-      </c>
-      <c r="B35">
-        <v>180</v>
-      </c>
-      <c r="C35">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>55</v>
-      </c>
-      <c r="B36">
-        <v>180</v>
-      </c>
-      <c r="C36">
-        <v>55</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <v>180</v>
-      </c>
-      <c r="C37">
-        <v>60</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>55</v>
-      </c>
-      <c r="B38">
-        <v>180</v>
-      </c>
-      <c r="C38">
-        <v>65</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>55</v>
-      </c>
-      <c r="B39">
-        <v>180</v>
-      </c>
-      <c r="C39">
-        <v>70</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>55</v>
-      </c>
-      <c r="B40">
-        <v>180</v>
-      </c>
-      <c r="C40">
-        <v>75</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>55</v>
-      </c>
-      <c r="B41">
-        <v>180</v>
-      </c>
-      <c r="C41">
-        <v>80</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>55</v>
-      </c>
-      <c r="B42">
-        <v>180</v>
-      </c>
-      <c r="C42">
-        <v>85</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>55</v>
-      </c>
-      <c r="B43">
-        <v>180</v>
-      </c>
-      <c r="C43">
-        <v>90</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>55</v>
-      </c>
-      <c r="B44">
-        <v>180</v>
-      </c>
-      <c r="C44">
-        <v>95</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>55</v>
-      </c>
-      <c r="B45">
-        <v>180</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>55</v>
-      </c>
-      <c r="B46">
-        <v>180</v>
-      </c>
-      <c r="C46">
-        <v>105</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>55</v>
-      </c>
-      <c r="B47">
-        <v>180</v>
-      </c>
-      <c r="C47">
-        <v>110</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>55</v>
-      </c>
-      <c r="B48">
-        <v>180</v>
-      </c>
-      <c r="C48">
-        <v>115</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>55</v>
-      </c>
-      <c r="B49">
-        <v>180</v>
-      </c>
-      <c r="C49">
-        <v>120</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>180</v>
-      </c>
-      <c r="C50">
-        <v>125</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>60</v>
-      </c>
-      <c r="B51">
-        <v>180</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>60</v>
-      </c>
-      <c r="B52">
-        <v>180</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>60</v>
-      </c>
-      <c r="B53">
-        <v>180</v>
-      </c>
-      <c r="C53">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <v>180</v>
-      </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>180</v>
-      </c>
-      <c r="C55">
-        <v>25</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>180</v>
-      </c>
-      <c r="C56">
-        <v>30</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>180</v>
-      </c>
-      <c r="C57">
-        <v>35</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>60</v>
-      </c>
-      <c r="B58">
-        <v>180</v>
-      </c>
-      <c r="C58">
-        <v>40</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>180</v>
-      </c>
-      <c r="C59">
-        <v>45</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>180</v>
-      </c>
-      <c r="C60">
-        <v>50</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>180</v>
-      </c>
-      <c r="C61">
-        <v>55</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>180</v>
-      </c>
-      <c r="C62">
-        <v>60</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>60</v>
-      </c>
-      <c r="B63">
-        <v>180</v>
-      </c>
-      <c r="C63">
-        <v>65</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64">
-        <v>180</v>
-      </c>
-      <c r="C64">
-        <v>70</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <v>60</v>
-      </c>
-      <c r="B65">
-        <v>180</v>
-      </c>
-      <c r="C65">
-        <v>75</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>60</v>
-      </c>
-      <c r="B66">
-        <v>180</v>
-      </c>
-      <c r="C66">
-        <v>80</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <v>60</v>
-      </c>
-      <c r="B67">
-        <v>180</v>
-      </c>
-      <c r="C67">
-        <v>85</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <v>60</v>
-      </c>
-      <c r="B68">
-        <v>180</v>
-      </c>
-      <c r="C68">
-        <v>90</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <v>60</v>
-      </c>
-      <c r="B69">
-        <v>180</v>
-      </c>
-      <c r="C69">
-        <v>95</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <v>60</v>
-      </c>
-      <c r="B70">
-        <v>180</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
-        <v>60</v>
-      </c>
-      <c r="B71">
-        <v>180</v>
-      </c>
-      <c r="C71">
-        <v>105</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <v>60</v>
-      </c>
-      <c r="B72">
-        <v>180</v>
-      </c>
-      <c r="C72">
-        <v>110</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <v>60</v>
-      </c>
-      <c r="B73">
-        <v>180</v>
-      </c>
-      <c r="C73">
-        <v>115</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <v>60</v>
-      </c>
-      <c r="B74">
-        <v>180</v>
-      </c>
-      <c r="C74">
-        <v>120</v>
-      </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <v>60</v>
-      </c>
-      <c r="B75">
-        <v>180</v>
-      </c>
-      <c r="C75">
-        <v>125</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <v>65</v>
-      </c>
-      <c r="B76">
-        <v>180</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <v>65</v>
-      </c>
-      <c r="B77">
-        <v>180</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
-        <v>65</v>
-      </c>
-      <c r="B78">
-        <v>180</v>
-      </c>
-      <c r="C78">
-        <v>15</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
-        <v>65</v>
-      </c>
-      <c r="B79">
-        <v>180</v>
-      </c>
-      <c r="C79">
-        <v>20</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
-        <v>65</v>
-      </c>
-      <c r="B80">
-        <v>180</v>
-      </c>
-      <c r="C80">
-        <v>25</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <v>65</v>
-      </c>
-      <c r="B81">
-        <v>180</v>
-      </c>
-      <c r="C81">
-        <v>30</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
-        <v>65</v>
-      </c>
-      <c r="B82">
-        <v>180</v>
-      </c>
-      <c r="C82">
-        <v>35</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <v>65</v>
-      </c>
-      <c r="B83">
-        <v>180</v>
-      </c>
-      <c r="C83">
-        <v>40</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
-        <v>65</v>
-      </c>
-      <c r="B84">
-        <v>180</v>
-      </c>
-      <c r="C84">
-        <v>45</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <v>65</v>
-      </c>
-      <c r="B85">
-        <v>180</v>
-      </c>
-      <c r="C85">
-        <v>50</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
-        <v>65</v>
-      </c>
-      <c r="B86">
-        <v>180</v>
-      </c>
-      <c r="C86">
-        <v>55</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
-        <v>65</v>
-      </c>
-      <c r="B87">
-        <v>180</v>
-      </c>
-      <c r="C87">
-        <v>60</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
-        <v>65</v>
-      </c>
-      <c r="B88">
-        <v>180</v>
-      </c>
-      <c r="C88">
-        <v>65</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
-        <v>65</v>
-      </c>
-      <c r="B89">
-        <v>180</v>
-      </c>
-      <c r="C89">
-        <v>70</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
-        <v>65</v>
-      </c>
-      <c r="B90">
-        <v>180</v>
-      </c>
-      <c r="C90">
-        <v>75</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
-        <v>65</v>
-      </c>
-      <c r="B91">
-        <v>180</v>
-      </c>
-      <c r="C91">
-        <v>80</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92">
-        <v>65</v>
-      </c>
-      <c r="B92">
-        <v>180</v>
-      </c>
-      <c r="C92">
-        <v>85</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
-        <v>65</v>
-      </c>
-      <c r="B93">
-        <v>180</v>
-      </c>
-      <c r="C93">
-        <v>90</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94">
-        <v>65</v>
-      </c>
-      <c r="B94">
-        <v>180</v>
-      </c>
-      <c r="C94">
-        <v>95</v>
-      </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
-        <v>65</v>
-      </c>
-      <c r="B95">
-        <v>180</v>
-      </c>
-      <c r="C95">
-        <v>100</v>
-      </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96">
-        <v>65</v>
-      </c>
-      <c r="B96">
-        <v>180</v>
-      </c>
-      <c r="C96">
-        <v>105</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
-        <v>65</v>
-      </c>
-      <c r="B97">
-        <v>180</v>
-      </c>
-      <c r="C97">
-        <v>110</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
-        <v>65</v>
-      </c>
-      <c r="B98">
-        <v>180</v>
-      </c>
-      <c r="C98">
-        <v>115</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99">
-        <v>65</v>
-      </c>
-      <c r="B99">
-        <v>180</v>
-      </c>
-      <c r="C99">
-        <v>120</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100">
-        <v>65</v>
-      </c>
-      <c r="B100">
-        <v>180</v>
-      </c>
-      <c r="C100">
-        <v>125</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101">
-        <v>70</v>
-      </c>
-      <c r="B101">
-        <v>180</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102">
-        <v>70</v>
-      </c>
-      <c r="B102">
-        <v>180</v>
-      </c>
-      <c r="C102">
-        <v>10</v>
-      </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103">
-        <v>70</v>
-      </c>
-      <c r="B103">
-        <v>180</v>
-      </c>
-      <c r="C103">
-        <v>15</v>
-      </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104">
-        <v>70</v>
-      </c>
-      <c r="B104">
-        <v>180</v>
-      </c>
-      <c r="C104">
-        <v>20</v>
-      </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105">
-        <v>70</v>
-      </c>
-      <c r="B105">
-        <v>180</v>
-      </c>
-      <c r="C105">
-        <v>25</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106">
-        <v>70</v>
-      </c>
-      <c r="B106">
-        <v>180</v>
-      </c>
-      <c r="C106">
-        <v>30</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107">
-        <v>70</v>
-      </c>
-      <c r="B107">
-        <v>180</v>
-      </c>
-      <c r="C107">
-        <v>35</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108">
-        <v>70</v>
-      </c>
-      <c r="B108">
-        <v>180</v>
-      </c>
-      <c r="C108">
-        <v>40</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109">
-        <v>70</v>
-      </c>
-      <c r="B109">
-        <v>180</v>
-      </c>
-      <c r="C109">
-        <v>45</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110">
-        <v>70</v>
-      </c>
-      <c r="B110">
-        <v>180</v>
-      </c>
-      <c r="C110">
-        <v>50</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111">
-        <v>70</v>
-      </c>
-      <c r="B111">
-        <v>180</v>
-      </c>
-      <c r="C111">
-        <v>55</v>
-      </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112">
-        <v>70</v>
-      </c>
-      <c r="B112">
-        <v>180</v>
-      </c>
-      <c r="C112">
-        <v>60</v>
-      </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113">
-        <v>70</v>
-      </c>
-      <c r="B113">
-        <v>180</v>
-      </c>
-      <c r="C113">
-        <v>65</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114">
-        <v>70</v>
-      </c>
-      <c r="B114">
-        <v>180</v>
-      </c>
-      <c r="C114">
-        <v>70</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115">
-        <v>70</v>
-      </c>
-      <c r="B115">
-        <v>180</v>
-      </c>
-      <c r="C115">
-        <v>75</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116">
-        <v>70</v>
-      </c>
-      <c r="B116">
-        <v>180</v>
-      </c>
-      <c r="C116">
-        <v>80</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117">
-        <v>70</v>
-      </c>
-      <c r="B117">
-        <v>180</v>
-      </c>
-      <c r="C117">
-        <v>85</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118">
-        <v>70</v>
-      </c>
-      <c r="B118">
-        <v>180</v>
-      </c>
-      <c r="C118">
-        <v>90</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119">
-        <v>70</v>
-      </c>
-      <c r="B119">
-        <v>180</v>
-      </c>
-      <c r="C119">
-        <v>95</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120">
-        <v>70</v>
-      </c>
-      <c r="B120">
-        <v>180</v>
-      </c>
-      <c r="C120">
-        <v>100</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121">
-        <v>70</v>
-      </c>
-      <c r="B121">
-        <v>180</v>
-      </c>
-      <c r="C121">
-        <v>105</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122">
-        <v>70</v>
-      </c>
-      <c r="B122">
-        <v>180</v>
-      </c>
-      <c r="C122">
-        <v>110</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123">
-        <v>70</v>
-      </c>
-      <c r="B123">
-        <v>180</v>
-      </c>
-      <c r="C123">
-        <v>115</v>
-      </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124">
-        <v>70</v>
-      </c>
-      <c r="B124">
-        <v>180</v>
-      </c>
-      <c r="C124">
-        <v>120</v>
-      </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125">
-        <v>70</v>
-      </c>
-      <c r="B125">
-        <v>180</v>
-      </c>
-      <c r="C125">
-        <v>125</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126">
-        <v>75</v>
-      </c>
-      <c r="B126">
-        <v>180</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127">
-        <v>75</v>
-      </c>
-      <c r="B127">
-        <v>180</v>
-      </c>
-      <c r="C127">
-        <v>10</v>
-      </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128">
-        <v>75</v>
-      </c>
-      <c r="B128">
-        <v>180</v>
-      </c>
-      <c r="C128">
-        <v>15</v>
-      </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129">
-        <v>75</v>
-      </c>
-      <c r="B129">
-        <v>180</v>
-      </c>
-      <c r="C129">
-        <v>20</v>
-      </c>
-      <c r="D129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130">
-        <v>75</v>
-      </c>
-      <c r="B130">
-        <v>180</v>
-      </c>
-      <c r="C130">
-        <v>25</v>
-      </c>
-      <c r="D130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131">
-        <v>75</v>
-      </c>
-      <c r="B131">
-        <v>180</v>
-      </c>
-      <c r="C131">
-        <v>30</v>
-      </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132">
-        <v>75</v>
-      </c>
-      <c r="B132">
-        <v>180</v>
-      </c>
-      <c r="C132">
-        <v>35</v>
-      </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133">
-        <v>75</v>
-      </c>
-      <c r="B133">
-        <v>180</v>
-      </c>
-      <c r="C133">
-        <v>40</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134">
-        <v>75</v>
-      </c>
-      <c r="B134">
-        <v>180</v>
-      </c>
-      <c r="C134">
-        <v>45</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135">
-        <v>75</v>
-      </c>
-      <c r="B135">
-        <v>180</v>
-      </c>
-      <c r="C135">
-        <v>50</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136">
-        <v>75</v>
-      </c>
-      <c r="B136">
-        <v>180</v>
-      </c>
-      <c r="C136">
-        <v>55</v>
-      </c>
-      <c r="D136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137">
-        <v>75</v>
-      </c>
-      <c r="B137">
-        <v>180</v>
-      </c>
-      <c r="C137">
-        <v>60</v>
-      </c>
-      <c r="D137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138">
-        <v>75</v>
-      </c>
-      <c r="B138">
-        <v>180</v>
-      </c>
-      <c r="C138">
-        <v>65</v>
-      </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139">
-        <v>75</v>
-      </c>
-      <c r="B139">
-        <v>180</v>
-      </c>
-      <c r="C139">
-        <v>70</v>
-      </c>
-      <c r="D139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140">
-        <v>75</v>
-      </c>
-      <c r="B140">
-        <v>180</v>
-      </c>
-      <c r="C140">
-        <v>75</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141">
-        <v>75</v>
-      </c>
-      <c r="B141">
-        <v>180</v>
-      </c>
-      <c r="C141">
-        <v>80</v>
-      </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142">
-        <v>75</v>
-      </c>
-      <c r="B142">
-        <v>180</v>
-      </c>
-      <c r="C142">
-        <v>85</v>
-      </c>
-      <c r="D142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143">
-        <v>75</v>
-      </c>
-      <c r="B143">
-        <v>180</v>
-      </c>
-      <c r="C143">
-        <v>90</v>
-      </c>
-      <c r="D143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144">
-        <v>75</v>
-      </c>
-      <c r="B144">
-        <v>180</v>
-      </c>
-      <c r="C144">
-        <v>95</v>
-      </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145">
-        <v>75</v>
-      </c>
-      <c r="B145">
-        <v>180</v>
-      </c>
-      <c r="C145">
-        <v>100</v>
-      </c>
-      <c r="D145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146">
-        <v>75</v>
-      </c>
-      <c r="B146">
-        <v>180</v>
-      </c>
-      <c r="C146">
-        <v>105</v>
-      </c>
-      <c r="D146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147">
-        <v>75</v>
-      </c>
-      <c r="B147">
-        <v>180</v>
-      </c>
-      <c r="C147">
-        <v>110</v>
-      </c>
-      <c r="D147">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148">
-        <v>75</v>
-      </c>
-      <c r="B148">
-        <v>180</v>
-      </c>
-      <c r="C148">
-        <v>115</v>
-      </c>
-      <c r="D148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149">
-        <v>75</v>
-      </c>
-      <c r="B149">
-        <v>180</v>
-      </c>
-      <c r="C149">
-        <v>120</v>
-      </c>
-      <c r="D149">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150">
-        <v>75</v>
-      </c>
-      <c r="B150">
-        <v>180</v>
-      </c>
-      <c r="C150">
-        <v>125</v>
-      </c>
-      <c r="D150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151">
-        <v>80</v>
-      </c>
-      <c r="B151">
-        <v>180</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152">
-        <v>80</v>
-      </c>
-      <c r="B152">
-        <v>180</v>
-      </c>
-      <c r="C152">
-        <v>10</v>
-      </c>
-      <c r="D152">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153">
-        <v>80</v>
-      </c>
-      <c r="B153">
-        <v>180</v>
-      </c>
-      <c r="C153">
-        <v>15</v>
-      </c>
-      <c r="D153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154">
-        <v>80</v>
-      </c>
-      <c r="B154">
-        <v>180</v>
-      </c>
-      <c r="C154">
-        <v>20</v>
-      </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155">
-        <v>80</v>
-      </c>
-      <c r="B155">
-        <v>180</v>
-      </c>
-      <c r="C155">
-        <v>25</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156">
-        <v>80</v>
-      </c>
-      <c r="B156">
-        <v>180</v>
-      </c>
-      <c r="C156">
-        <v>30</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157">
-        <v>80</v>
-      </c>
-      <c r="B157">
-        <v>180</v>
-      </c>
-      <c r="C157">
-        <v>35</v>
-      </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158">
-        <v>80</v>
-      </c>
-      <c r="B158">
-        <v>180</v>
-      </c>
-      <c r="C158">
-        <v>40</v>
-      </c>
-      <c r="D158">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159">
-        <v>80</v>
-      </c>
-      <c r="B159">
-        <v>180</v>
-      </c>
-      <c r="C159">
-        <v>45</v>
-      </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160">
-        <v>80</v>
-      </c>
-      <c r="B160">
-        <v>180</v>
-      </c>
-      <c r="C160">
-        <v>50</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161">
-        <v>80</v>
-      </c>
-      <c r="B161">
-        <v>180</v>
-      </c>
-      <c r="C161">
-        <v>55</v>
-      </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162">
-        <v>80</v>
-      </c>
-      <c r="B162">
-        <v>180</v>
-      </c>
-      <c r="C162">
-        <v>60</v>
-      </c>
-      <c r="D162">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163">
-        <v>80</v>
-      </c>
-      <c r="B163">
-        <v>180</v>
-      </c>
-      <c r="C163">
-        <v>65</v>
-      </c>
-      <c r="D163">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164">
-        <v>80</v>
-      </c>
-      <c r="B164">
-        <v>180</v>
-      </c>
-      <c r="C164">
-        <v>70</v>
-      </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165">
-        <v>80</v>
-      </c>
-      <c r="B165">
-        <v>180</v>
-      </c>
-      <c r="C165">
-        <v>75</v>
-      </c>
-      <c r="D165">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166">
-        <v>80</v>
-      </c>
-      <c r="B166">
-        <v>180</v>
-      </c>
-      <c r="C166">
-        <v>80</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167">
-        <v>80</v>
-      </c>
-      <c r="B167">
-        <v>180</v>
-      </c>
-      <c r="C167">
-        <v>85</v>
-      </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168">
-        <v>80</v>
-      </c>
-      <c r="B168">
-        <v>180</v>
-      </c>
-      <c r="C168">
-        <v>90</v>
-      </c>
-      <c r="D168">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169">
-        <v>80</v>
-      </c>
-      <c r="B169">
-        <v>180</v>
-      </c>
-      <c r="C169">
-        <v>95</v>
-      </c>
-      <c r="D169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170">
-        <v>80</v>
-      </c>
-      <c r="B170">
-        <v>180</v>
-      </c>
-      <c r="C170">
-        <v>100</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171">
-        <v>80</v>
-      </c>
-      <c r="B171">
-        <v>180</v>
-      </c>
-      <c r="C171">
-        <v>105</v>
-      </c>
-      <c r="D171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172">
-        <v>80</v>
-      </c>
-      <c r="B172">
-        <v>180</v>
-      </c>
-      <c r="C172">
-        <v>110</v>
-      </c>
-      <c r="D172">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173">
-        <v>80</v>
-      </c>
-      <c r="B173">
-        <v>180</v>
-      </c>
-      <c r="C173">
-        <v>115</v>
-      </c>
-      <c r="D173">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174">
-        <v>80</v>
-      </c>
-      <c r="B174">
-        <v>180</v>
-      </c>
-      <c r="C174">
-        <v>120</v>
-      </c>
-      <c r="D174">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175">
-        <v>80</v>
-      </c>
-      <c r="B175">
-        <v>180</v>
-      </c>
-      <c r="C175">
-        <v>125</v>
-      </c>
-      <c r="D175">
         <v>5</v>
       </c>
     </row>

--- a/Prism Controller/Test File Builder.xlsx
+++ b/Prism Controller/Test File Builder.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preco\OneDrive\Documents\GitHub\Labview-Foot-Detect\Prism Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindand.PRECOR\Documents\GitHub\Labview-Foot-Detect\Prism Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C8ADF7-D663-45BA-B6D7-E80E17FC6399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D7C4B-C347-4A92-8BF5-A8A767A429F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="504" windowWidth="16170" windowHeight="11682" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
+    <workbookView xWindow="2820" yWindow="1540" windowWidth="14400" windowHeight="8260" activeTab="1" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
   </bookViews>
   <sheets>
     <sheet name="All Speed and Inc - 14 hrs" sheetId="1" r:id="rId1"/>
-    <sheet name="5-8 mph,  all inc - 14.5 hrs" sheetId="2" r:id="rId2"/>
-    <sheet name="5-8 mph,  all inc - 8.5 hrs" sheetId="3" r:id="rId3"/>
+    <sheet name="Low Speed, High Inc 1 Hr" sheetId="4" r:id="rId2"/>
+    <sheet name="5-8 mph,  all inc - 14.5 hrs" sheetId="2" r:id="rId3"/>
+    <sheet name="5-8 mph,  all inc - 8.5 hrs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -386,13 +387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23C4E3-A558-4321-84DE-C1C6DB982921}">
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>125</v>
       </c>
@@ -406,7 +407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>125</v>
       </c>
@@ -420,7 +421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>125</v>
       </c>
@@ -434,7 +435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>125</v>
       </c>
@@ -448,7 +449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>125</v>
       </c>
@@ -462,7 +463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>125</v>
       </c>
@@ -476,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>125</v>
       </c>
@@ -490,7 +491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>125</v>
       </c>
@@ -504,7 +505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>125</v>
       </c>
@@ -518,7 +519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>125</v>
       </c>
@@ -532,7 +533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>125</v>
       </c>
@@ -546,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>125</v>
       </c>
@@ -560,7 +561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>125</v>
       </c>
@@ -574,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>125</v>
       </c>
@@ -588,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>115</v>
       </c>
@@ -602,7 +603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>115</v>
       </c>
@@ -616,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>115</v>
       </c>
@@ -630,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>115</v>
       </c>
@@ -644,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>115</v>
       </c>
@@ -658,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>115</v>
       </c>
@@ -672,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>115</v>
       </c>
@@ -686,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>115</v>
       </c>
@@ -700,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>115</v>
       </c>
@@ -714,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>115</v>
       </c>
@@ -728,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>115</v>
       </c>
@@ -742,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>115</v>
       </c>
@@ -756,7 +757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>115</v>
       </c>
@@ -770,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>115</v>
       </c>
@@ -784,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>100</v>
       </c>
@@ -798,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>100</v>
       </c>
@@ -812,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>100</v>
       </c>
@@ -826,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>100</v>
       </c>
@@ -840,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>100</v>
       </c>
@@ -854,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>100</v>
       </c>
@@ -868,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>100</v>
       </c>
@@ -882,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>100</v>
       </c>
@@ -896,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>100</v>
       </c>
@@ -910,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>100</v>
       </c>
@@ -924,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>100</v>
       </c>
@@ -938,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>100</v>
       </c>
@@ -952,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>100</v>
       </c>
@@ -966,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>100</v>
       </c>
@@ -980,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>90</v>
       </c>
@@ -994,7 +995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>90</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>90</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>90</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>90</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>90</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>90</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>90</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>90</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>90</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>90</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>90</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>90</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>90</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>80</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>80</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>80</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>80</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>80</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>80</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>80</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>80</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>80</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>80</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>80</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>80</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>80</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>80</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>70</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>70</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>70</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>70</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>70</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>70</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>70</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>70</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>70</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>70</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>70</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>70</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>60</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>60</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>60</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>60</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>60</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>60</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>60</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>60</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>60</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>60</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>60</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>60</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>60</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>60</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>50</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>50</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>50</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>50</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>50</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>50</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>50</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>50</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>50</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>50</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>50</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>50</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>50</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>50</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>40</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>40</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>40</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>40</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>40</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>40</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>40</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>40</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>40</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>40</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>40</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>40</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>40</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>40</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>30</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>30</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>30</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>30</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>30</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>30</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>30</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>30</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>30</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>30</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>30</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>30</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>30</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>30</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>20</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>20</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>20</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>20</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>20</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>20</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>20</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>20</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>20</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>20</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>20</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>20</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>20</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>20</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>10</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>10</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>10</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>10</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>10</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>10</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>10</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>10</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>10</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>10</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>10</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>10</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>10</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>10</v>
       </c>
@@ -2753,6 +2754,581 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C58743-C68E-4CEE-8CE9-6E3B020D9DA8}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>90</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>115</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>110</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>125</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>90</v>
+      </c>
+      <c r="C27">
+        <v>115</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>90</v>
+      </c>
+      <c r="C34">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <v>125</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>125</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>90</v>
+      </c>
+      <c r="C37">
+        <v>115</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC6532-97E4-4D88-B9A6-626422A45906}">
   <dimension ref="A1:D175"/>
   <sheetViews>
@@ -2760,9 +3336,9 @@
       <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>50</v>
       </c>
@@ -2776,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>50</v>
       </c>
@@ -2790,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50</v>
       </c>
@@ -2804,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>50</v>
       </c>
@@ -2818,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
@@ -2832,7 +3408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2846,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2860,7 +3436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50</v>
       </c>
@@ -2874,7 +3450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50</v>
       </c>
@@ -2888,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -2902,7 +3478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>50</v>
       </c>
@@ -2916,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
@@ -2930,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>50</v>
       </c>
@@ -2944,7 +3520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>50</v>
       </c>
@@ -2958,7 +3534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>50</v>
       </c>
@@ -2972,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>50</v>
       </c>
@@ -2986,7 +3562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>50</v>
       </c>
@@ -3000,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>50</v>
       </c>
@@ -3014,7 +3590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>50</v>
       </c>
@@ -3028,7 +3604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>50</v>
       </c>
@@ -3042,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>50</v>
       </c>
@@ -3056,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>50</v>
       </c>
@@ -3070,7 +3646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>50</v>
       </c>
@@ -3084,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>50</v>
       </c>
@@ -3098,7 +3674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>50</v>
       </c>
@@ -3112,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>55</v>
       </c>
@@ -3126,7 +3702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>55</v>
       </c>
@@ -3140,7 +3716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>55</v>
       </c>
@@ -3154,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>55</v>
       </c>
@@ -3168,7 +3744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>55</v>
       </c>
@@ -3182,7 +3758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>55</v>
       </c>
@@ -3196,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>55</v>
       </c>
@@ -3210,7 +3786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>55</v>
       </c>
@@ -3224,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>55</v>
       </c>
@@ -3238,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>55</v>
       </c>
@@ -3252,7 +3828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>55</v>
       </c>
@@ -3266,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>55</v>
       </c>
@@ -3280,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>55</v>
       </c>
@@ -3294,7 +3870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>55</v>
       </c>
@@ -3308,7 +3884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>55</v>
       </c>
@@ -3322,7 +3898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>55</v>
       </c>
@@ -3336,7 +3912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>55</v>
       </c>
@@ -3350,7 +3926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>55</v>
       </c>
@@ -3364,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>55</v>
       </c>
@@ -3378,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>55</v>
       </c>
@@ -3392,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>55</v>
       </c>
@@ -3406,7 +3982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>55</v>
       </c>
@@ -3420,7 +3996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>55</v>
       </c>
@@ -3434,7 +4010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>55</v>
       </c>
@@ -3448,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>55</v>
       </c>
@@ -3462,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>60</v>
       </c>
@@ -3476,7 +4052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>60</v>
       </c>
@@ -3490,7 +4066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>60</v>
       </c>
@@ -3504,7 +4080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>60</v>
       </c>
@@ -3518,7 +4094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>60</v>
       </c>
@@ -3532,7 +4108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>60</v>
       </c>
@@ -3546,7 +4122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>60</v>
       </c>
@@ -3560,7 +4136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>60</v>
       </c>
@@ -3574,7 +4150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>60</v>
       </c>
@@ -3588,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3602,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3616,7 +4192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3630,7 +4206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>60</v>
       </c>
@@ -3644,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>60</v>
       </c>
@@ -3658,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>60</v>
       </c>
@@ -3672,7 +4248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>60</v>
       </c>
@@ -3686,7 +4262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>60</v>
       </c>
@@ -3700,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>60</v>
       </c>
@@ -3714,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>60</v>
       </c>
@@ -3728,7 +4304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>60</v>
       </c>
@@ -3742,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>60</v>
       </c>
@@ -3756,7 +4332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>60</v>
       </c>
@@ -3770,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>60</v>
       </c>
@@ -3784,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>60</v>
       </c>
@@ -3798,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>60</v>
       </c>
@@ -3812,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>65</v>
       </c>
@@ -3826,7 +4402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>65</v>
       </c>
@@ -3840,7 +4416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>65</v>
       </c>
@@ -3854,7 +4430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>65</v>
       </c>
@@ -3868,7 +4444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>65</v>
       </c>
@@ -3882,7 +4458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>65</v>
       </c>
@@ -3896,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>65</v>
       </c>
@@ -3910,7 +4486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>65</v>
       </c>
@@ -3924,7 +4500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>65</v>
       </c>
@@ -3938,7 +4514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>65</v>
       </c>
@@ -3952,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>65</v>
       </c>
@@ -3966,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>65</v>
       </c>
@@ -3980,7 +4556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>65</v>
       </c>
@@ -3994,7 +4570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>65</v>
       </c>
@@ -4008,7 +4584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>65</v>
       </c>
@@ -4022,7 +4598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>65</v>
       </c>
@@ -4036,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>65</v>
       </c>
@@ -4050,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>65</v>
       </c>
@@ -4064,7 +4640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>65</v>
       </c>
@@ -4078,7 +4654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>65</v>
       </c>
@@ -4092,7 +4668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>65</v>
       </c>
@@ -4106,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>65</v>
       </c>
@@ -4120,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>65</v>
       </c>
@@ -4134,7 +4710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>65</v>
       </c>
@@ -4148,7 +4724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>65</v>
       </c>
@@ -4162,7 +4738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>70</v>
       </c>
@@ -4176,7 +4752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>70</v>
       </c>
@@ -4190,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>70</v>
       </c>
@@ -4204,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>70</v>
       </c>
@@ -4218,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>70</v>
       </c>
@@ -4232,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>70</v>
       </c>
@@ -4246,7 +4822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>70</v>
       </c>
@@ -4260,7 +4836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>70</v>
       </c>
@@ -4274,7 +4850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>70</v>
       </c>
@@ -4288,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>70</v>
       </c>
@@ -4302,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>70</v>
       </c>
@@ -4316,7 +4892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>70</v>
       </c>
@@ -4330,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>70</v>
       </c>
@@ -4344,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>70</v>
       </c>
@@ -4358,7 +4934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>70</v>
       </c>
@@ -4372,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>70</v>
       </c>
@@ -4386,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>70</v>
       </c>
@@ -4400,7 +4976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>70</v>
       </c>
@@ -4414,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>70</v>
       </c>
@@ -4428,7 +5004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>70</v>
       </c>
@@ -4442,7 +5018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>70</v>
       </c>
@@ -4456,7 +5032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>70</v>
       </c>
@@ -4470,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>70</v>
       </c>
@@ -4484,7 +5060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>70</v>
       </c>
@@ -4498,7 +5074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>70</v>
       </c>
@@ -4512,7 +5088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>75</v>
       </c>
@@ -4526,7 +5102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>75</v>
       </c>
@@ -4540,7 +5116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>75</v>
       </c>
@@ -4554,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>75</v>
       </c>
@@ -4568,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>75</v>
       </c>
@@ -4582,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>75</v>
       </c>
@@ -4596,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>75</v>
       </c>
@@ -4610,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>75</v>
       </c>
@@ -4624,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>75</v>
       </c>
@@ -4638,7 +5214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>75</v>
       </c>
@@ -4652,7 +5228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>75</v>
       </c>
@@ -4666,7 +5242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>75</v>
       </c>
@@ -4680,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>75</v>
       </c>
@@ -4694,7 +5270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>75</v>
       </c>
@@ -4708,7 +5284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>75</v>
       </c>
@@ -4722,7 +5298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>75</v>
       </c>
@@ -4736,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>75</v>
       </c>
@@ -4750,7 +5326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>75</v>
       </c>
@@ -4764,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>75</v>
       </c>
@@ -4778,7 +5354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>75</v>
       </c>
@@ -4792,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>75</v>
       </c>
@@ -4806,7 +5382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>75</v>
       </c>
@@ -4820,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>75</v>
       </c>
@@ -4834,7 +5410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>75</v>
       </c>
@@ -4848,7 +5424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>75</v>
       </c>
@@ -4862,7 +5438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>80</v>
       </c>
@@ -4876,7 +5452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>80</v>
       </c>
@@ -4890,7 +5466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>80</v>
       </c>
@@ -4904,7 +5480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>80</v>
       </c>
@@ -4918,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>80</v>
       </c>
@@ -4932,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>80</v>
       </c>
@@ -4946,7 +5522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>80</v>
       </c>
@@ -4960,7 +5536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>80</v>
       </c>
@@ -4974,7 +5550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>80</v>
       </c>
@@ -4988,7 +5564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>80</v>
       </c>
@@ -5002,7 +5578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>80</v>
       </c>
@@ -5016,7 +5592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>80</v>
       </c>
@@ -5030,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>80</v>
       </c>
@@ -5044,7 +5620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>80</v>
       </c>
@@ -5058,7 +5634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>80</v>
       </c>
@@ -5072,7 +5648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>80</v>
       </c>
@@ -5086,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>80</v>
       </c>
@@ -5100,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>80</v>
       </c>
@@ -5114,7 +5690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>80</v>
       </c>
@@ -5128,7 +5704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>80</v>
       </c>
@@ -5142,7 +5718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>80</v>
       </c>
@@ -5156,7 +5732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>80</v>
       </c>
@@ -5170,7 +5746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>80</v>
       </c>
@@ -5184,7 +5760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>80</v>
       </c>
@@ -5198,7 +5774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>80</v>
       </c>
@@ -5217,7 +5793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA04BFE6-58C5-4684-96F8-6D3A5E15647A}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5225,9 +5801,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>10</v>
       </c>
@@ -5241,7 +5817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -5255,7 +5831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -5269,7 +5845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -5283,7 +5859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15</v>
       </c>
@@ -5297,7 +5873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15</v>
       </c>
@@ -5311,7 +5887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>15</v>
       </c>
@@ -5325,7 +5901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5339,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20</v>
       </c>
@@ -5353,7 +5929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>20</v>
       </c>
@@ -5367,7 +5943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>20</v>
       </c>
@@ -5381,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20</v>
       </c>
@@ -5395,7 +5971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>25</v>
       </c>
@@ -5409,7 +5985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>25</v>
       </c>
@@ -5423,7 +5999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>25</v>
       </c>
@@ -5437,7 +6013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>25</v>
       </c>
@@ -5451,7 +6027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>30</v>
       </c>
@@ -5465,7 +6041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>30</v>
       </c>
@@ -5479,7 +6055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>30</v>
       </c>
@@ -5493,7 +6069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30</v>
       </c>

--- a/Prism Controller/Test File Builder.xlsx
+++ b/Prism Controller/Test File Builder.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindand.PRECOR\Documents\GitHub\Labview-Foot-Detect\Prism Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D7C4B-C347-4A92-8BF5-A8A767A429F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DD6A5-ECB6-4676-B02B-73DC6D42BFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1540" windowWidth="14400" windowHeight="8260" activeTab="1" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
   </bookViews>
   <sheets>
-    <sheet name="All Speed and Inc - 14 hrs" sheetId="1" r:id="rId1"/>
-    <sheet name="Low Speed, High Inc 1 Hr" sheetId="4" r:id="rId2"/>
-    <sheet name="5-8 mph,  all inc - 14.5 hrs" sheetId="2" r:id="rId3"/>
-    <sheet name="5-8 mph,  all inc - 8.5 hrs" sheetId="3" r:id="rId4"/>
+    <sheet name="start_stop_low_speed" sheetId="5" r:id="rId1"/>
+    <sheet name="All Speed and Inc - 14 hrs" sheetId="1" r:id="rId2"/>
+    <sheet name="Low Speed, High Inc 1 Hr" sheetId="4" r:id="rId3"/>
+    <sheet name="5-8 mph,  all inc - 14.5 hrs" sheetId="2" r:id="rId4"/>
+    <sheet name="5-8 mph,  all inc - 8.5 hrs" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -384,10 +385,1720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976D6F76-173C-44B9-9155-9AA7FB02B2F9}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>300</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>300</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>300</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>300</v>
+      </c>
+      <c r="C24">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>300</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>300</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>300</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>300</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>300</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>300</v>
+      </c>
+      <c r="C35">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>300</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>300</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>300</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>300</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>300</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>300</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>300</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>300</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>300</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>300</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>300</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>300</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>300</v>
+      </c>
+      <c r="C48">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>300</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>300</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>300</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>300</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>300</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>300</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>300</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>300</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>300</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>300</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>300</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>300</v>
+      </c>
+      <c r="C60">
+        <v>70</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>300</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>300</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>300</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>300</v>
+      </c>
+      <c r="C64">
+        <v>35</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>300</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>300</v>
+      </c>
+      <c r="C66">
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>300</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>300</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>300</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>21</v>
+      </c>
+      <c r="B70">
+        <v>300</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>300</v>
+      </c>
+      <c r="C71">
+        <v>80</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>21</v>
+      </c>
+      <c r="B72">
+        <v>300</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>300</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>300</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>300</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>300</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>300</v>
+      </c>
+      <c r="C77">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>300</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>300</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>23</v>
+      </c>
+      <c r="B80">
+        <v>300</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <v>300</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>300</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>23</v>
+      </c>
+      <c r="B83">
+        <v>300</v>
+      </c>
+      <c r="C83">
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>23</v>
+      </c>
+      <c r="B84">
+        <v>300</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>300</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>24</v>
+      </c>
+      <c r="B86">
+        <v>300</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>24</v>
+      </c>
+      <c r="B87">
+        <v>300</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>24</v>
+      </c>
+      <c r="B88">
+        <v>300</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <v>300</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90">
+        <v>300</v>
+      </c>
+      <c r="C90">
+        <v>40</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>300</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <v>300</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93">
+        <v>300</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>25</v>
+      </c>
+      <c r="B94">
+        <v>300</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>25</v>
+      </c>
+      <c r="B95">
+        <v>300</v>
+      </c>
+      <c r="C95">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96">
+        <v>300</v>
+      </c>
+      <c r="C96">
+        <v>70</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>300</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>26</v>
+      </c>
+      <c r="B98">
+        <v>300</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>26</v>
+      </c>
+      <c r="B99">
+        <v>300</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>26</v>
+      </c>
+      <c r="B100">
+        <v>300</v>
+      </c>
+      <c r="C100">
+        <v>35</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>26</v>
+      </c>
+      <c r="B101">
+        <v>300</v>
+      </c>
+      <c r="C101">
+        <v>50</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>26</v>
+      </c>
+      <c r="B102">
+        <v>300</v>
+      </c>
+      <c r="C102">
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>300</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>27</v>
+      </c>
+      <c r="B104">
+        <v>300</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>27</v>
+      </c>
+      <c r="B105">
+        <v>300</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>27</v>
+      </c>
+      <c r="B106">
+        <v>300</v>
+      </c>
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107">
+        <v>300</v>
+      </c>
+      <c r="C107">
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>27</v>
+      </c>
+      <c r="B108">
+        <v>300</v>
+      </c>
+      <c r="C108">
+        <v>40</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>300</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="B110">
+        <v>300</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>28</v>
+      </c>
+      <c r="B111">
+        <v>300</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112">
+        <v>300</v>
+      </c>
+      <c r="C112">
+        <v>35</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>28</v>
+      </c>
+      <c r="B113">
+        <v>300</v>
+      </c>
+      <c r="C113">
+        <v>50</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>28</v>
+      </c>
+      <c r="B114">
+        <v>300</v>
+      </c>
+      <c r="C114">
+        <v>80</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>300</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>29</v>
+      </c>
+      <c r="B116">
+        <v>300</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>29</v>
+      </c>
+      <c r="B117">
+        <v>300</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>29</v>
+      </c>
+      <c r="B118">
+        <v>300</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>300</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>29</v>
+      </c>
+      <c r="B120">
+        <v>300</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>900</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23C4E3-A558-4321-84DE-C1C6DB982921}">
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D169"/>
     </sheetView>
   </sheetViews>
@@ -2753,11 +4464,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C58743-C68E-4CEE-8CE9-6E3B020D9DA8}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
@@ -3328,11 +5039,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC6532-97E4-4D88-B9A6-626422A45906}">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
@@ -5793,12 +7504,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA04BFE6-58C5-4684-96F8-6D3A5E15647A}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D20" sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Prism Controller/Test File Builder.xlsx
+++ b/Prism Controller/Test File Builder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindand.PRECOR\Documents\GitHub\Labview-Foot-Detect\Prism Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preco\OneDrive\Documents\GitHub\Labview-Foot-Detect\Prism Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DD6A5-ECB6-4676-B02B-73DC6D42BFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A48713E-F814-4A5A-8A49-A6FE9BCD3BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="1" xr2:uid="{8CE05FD7-2BBC-463A-B601-DBE9D6B22296}"/>
   </bookViews>
   <sheets>
     <sheet name="start_stop_low_speed" sheetId="5" r:id="rId1"/>
@@ -37,6 +37,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,13 +392,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976D6F76-173C-44B9-9155-9AA7FB02B2F9}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>10</v>
       </c>
@@ -408,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10</v>
       </c>
@@ -422,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
@@ -436,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10</v>
       </c>
@@ -450,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10</v>
       </c>
@@ -464,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>10</v>
       </c>
@@ -478,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -492,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>11</v>
       </c>
@@ -506,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>11</v>
       </c>
@@ -520,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>11</v>
       </c>
@@ -534,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>11</v>
       </c>
@@ -548,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -562,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>0</v>
       </c>
@@ -576,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
@@ -590,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>12</v>
       </c>
@@ -604,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>12</v>
       </c>
@@ -618,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>12</v>
       </c>
@@ -632,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>12</v>
       </c>
@@ -646,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>0</v>
       </c>
@@ -660,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>13</v>
       </c>
@@ -674,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>13</v>
       </c>
@@ -688,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>13</v>
       </c>
@@ -702,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>13</v>
       </c>
@@ -716,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>13</v>
       </c>
@@ -730,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>0</v>
       </c>
@@ -744,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>14</v>
       </c>
@@ -758,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>14</v>
       </c>
@@ -772,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>14</v>
       </c>
@@ -786,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>14</v>
       </c>
@@ -800,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>14</v>
       </c>
@@ -814,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>0</v>
       </c>
@@ -828,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>15</v>
       </c>
@@ -842,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>15</v>
       </c>
@@ -856,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>15</v>
       </c>
@@ -870,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>15</v>
       </c>
@@ -884,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>15</v>
       </c>
@@ -898,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>0</v>
       </c>
@@ -912,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>16</v>
       </c>
@@ -926,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>16</v>
       </c>
@@ -940,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>16</v>
       </c>
@@ -954,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>16</v>
       </c>
@@ -968,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>16</v>
       </c>
@@ -982,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>0</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>17</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>17</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>17</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>17</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>17</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>18</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>18</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>18</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>18</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>18</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>19</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>19</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>19</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>19</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>19</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>20</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>20</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>20</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>20</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>20</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>0</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>21</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>21</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>21</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>21</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>21</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>22</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>22</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>22</v>
       </c>
@@ -1458,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>22</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>22</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>0</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>23</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>23</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>23</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>23</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>23</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>0</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>24</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>24</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>24</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>24</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>24</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>0</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>25</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>25</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>25</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>25</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>25</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>0</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>26</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>26</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>26</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>26</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>26</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>0</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>27</v>
       </c>
@@ -1850,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>27</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>27</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>27</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>27</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>0</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>28</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>28</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>28</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>28</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>28</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>0</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>29</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>29</v>
       </c>
@@ -2032,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>29</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>29</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>29</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>0</v>
       </c>
@@ -2096,2371 +2100,4136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E23C4E3-A558-4321-84DE-C1C6DB982921}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D169"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>125</v>
-      </c>
       <c r="B3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>125</v>
-      </c>
       <c r="B4">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>125</v>
-      </c>
       <c r="B5">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>125</v>
-      </c>
       <c r="B6">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>125</v>
-      </c>
       <c r="B7">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>125</v>
-      </c>
       <c r="B8">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C8">
         <v>70</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>125</v>
-      </c>
       <c r="B9">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C9">
         <v>80</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>125</v>
-      </c>
       <c r="B10">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C10">
         <v>90</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>125</v>
-      </c>
       <c r="B11">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>125</v>
-      </c>
       <c r="B12">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C12">
         <v>110</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>125</v>
-      </c>
       <c r="B13">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C13">
         <v>120</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>125</v>
-      </c>
       <c r="B14">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C14">
         <v>125</v>
       </c>
       <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
       <c r="D17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <v>40</v>
       </c>
       <c r="D19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
       <c r="D21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C22">
         <v>70</v>
       </c>
       <c r="D22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C23">
         <v>80</v>
       </c>
       <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C24">
         <v>90</v>
       </c>
       <c r="D24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
       <c r="D25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C26">
         <v>110</v>
       </c>
       <c r="D26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C27">
         <v>120</v>
       </c>
       <c r="D27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C28">
         <v>125</v>
       </c>
       <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C31">
         <v>20</v>
       </c>
       <c r="D31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C33">
         <v>40</v>
       </c>
       <c r="D33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C34">
         <v>50</v>
       </c>
       <c r="D34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C35">
         <v>60</v>
       </c>
       <c r="D35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>70</v>
       </c>
       <c r="D36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C37">
         <v>80</v>
       </c>
       <c r="D37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C38">
         <v>90</v>
       </c>
       <c r="D38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C40">
         <v>110</v>
       </c>
       <c r="D40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C41">
         <v>120</v>
       </c>
       <c r="D41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C42">
         <v>125</v>
       </c>
       <c r="D42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C46">
         <v>30</v>
       </c>
       <c r="D46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C47">
         <v>40</v>
       </c>
       <c r="D47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C48">
         <v>50</v>
       </c>
       <c r="D48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C49">
         <v>60</v>
       </c>
       <c r="D49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C50">
         <v>70</v>
       </c>
       <c r="D50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C51">
         <v>80</v>
       </c>
       <c r="D51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C52">
         <v>90</v>
       </c>
       <c r="D52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C53">
         <v>100</v>
       </c>
       <c r="D53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C54">
         <v>110</v>
       </c>
       <c r="D54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C55">
         <v>120</v>
       </c>
       <c r="D55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C56">
         <v>125</v>
       </c>
       <c r="D56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
       <c r="D59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
       <c r="D60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C61">
         <v>40</v>
       </c>
       <c r="D61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C62">
         <v>50</v>
       </c>
       <c r="D62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C63">
         <v>60</v>
       </c>
       <c r="D63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C64">
         <v>70</v>
       </c>
       <c r="D64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C65">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C66">
         <v>90</v>
       </c>
       <c r="D66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C67">
         <v>100</v>
       </c>
       <c r="D67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C68">
         <v>110</v>
       </c>
       <c r="D68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C69">
         <v>120</v>
       </c>
       <c r="D69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C70">
         <v>125</v>
       </c>
       <c r="D70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C73">
         <v>20</v>
       </c>
       <c r="D73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C74">
         <v>30</v>
       </c>
       <c r="D74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C75">
         <v>40</v>
       </c>
       <c r="D75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C76">
         <v>50</v>
       </c>
       <c r="D76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C77">
         <v>60</v>
       </c>
       <c r="D77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C78">
         <v>70</v>
       </c>
       <c r="D78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B79">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C79">
         <v>80</v>
       </c>
       <c r="D79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B80">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C80">
         <v>90</v>
       </c>
       <c r="D80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B81">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C81">
         <v>100</v>
       </c>
       <c r="D81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B82">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C82">
         <v>110</v>
       </c>
       <c r="D82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C83">
         <v>120</v>
       </c>
       <c r="D83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B84">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C84">
         <v>125</v>
       </c>
       <c r="D84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B85">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B86">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
       <c r="D86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B87">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C87">
         <v>20</v>
       </c>
       <c r="D87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C88">
         <v>30</v>
       </c>
       <c r="D88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C89">
         <v>40</v>
       </c>
       <c r="D89">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B90">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C90">
         <v>50</v>
       </c>
       <c r="D90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C91">
         <v>60</v>
       </c>
       <c r="D91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B92">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C92">
         <v>70</v>
       </c>
       <c r="D92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B93">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C93">
         <v>80</v>
       </c>
       <c r="D93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B94">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C94">
         <v>90</v>
       </c>
       <c r="D94">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B95">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C95">
         <v>100</v>
       </c>
       <c r="D95">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B96">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C96">
         <v>110</v>
       </c>
       <c r="D96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B97">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C97">
         <v>120</v>
       </c>
       <c r="D97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B98">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C98">
         <v>125</v>
       </c>
       <c r="D98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B99">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B100">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C100">
         <v>10</v>
       </c>
       <c r="D100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B101">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C101">
         <v>20</v>
       </c>
       <c r="D101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B102">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C102">
         <v>30</v>
       </c>
       <c r="D102">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B103">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C103">
         <v>40</v>
       </c>
       <c r="D103">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B104">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C104">
         <v>50</v>
       </c>
       <c r="D104">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B105">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C105">
         <v>60</v>
       </c>
       <c r="D105">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B106">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C106">
         <v>70</v>
       </c>
       <c r="D106">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B107">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C107">
         <v>80</v>
       </c>
       <c r="D107">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B108">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C108">
         <v>90</v>
       </c>
       <c r="D108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B109">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C109">
         <v>100</v>
       </c>
       <c r="D109">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C110">
         <v>110</v>
       </c>
       <c r="D110">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B111">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C111">
         <v>120</v>
       </c>
       <c r="D111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B112">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C112">
         <v>125</v>
       </c>
       <c r="D112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B113">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B114">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C114">
         <v>10</v>
       </c>
       <c r="D114">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B115">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C115">
         <v>20</v>
       </c>
       <c r="D115">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B116">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C116">
         <v>30</v>
       </c>
       <c r="D116">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B117">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C117">
         <v>40</v>
       </c>
       <c r="D117">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B118">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C118">
         <v>50</v>
       </c>
       <c r="D118">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B119">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C119">
         <v>60</v>
       </c>
       <c r="D119">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B120">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C120">
         <v>70</v>
       </c>
       <c r="D120">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B121">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C121">
         <v>80</v>
       </c>
       <c r="D121">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B122">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C122">
         <v>90</v>
       </c>
       <c r="D122">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B123">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C123">
         <v>100</v>
       </c>
       <c r="D123">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B124">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C124">
         <v>110</v>
       </c>
       <c r="D124">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B125">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C125">
         <v>120</v>
       </c>
       <c r="D125">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B126">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C126">
         <v>125</v>
       </c>
       <c r="D126">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B127">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B128">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C128">
         <v>10</v>
       </c>
       <c r="D128">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B129">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C129">
         <v>20</v>
       </c>
       <c r="D129">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B130">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C130">
         <v>30</v>
       </c>
       <c r="D130">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B131">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C131">
         <v>40</v>
       </c>
       <c r="D131">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B132">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C132">
         <v>50</v>
       </c>
       <c r="D132">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B133">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C133">
         <v>60</v>
       </c>
       <c r="D133">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B134">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C134">
         <v>70</v>
       </c>
       <c r="D134">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B135">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C135">
         <v>80</v>
       </c>
       <c r="D135">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B136">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C136">
         <v>90</v>
       </c>
       <c r="D136">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B137">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C137">
         <v>100</v>
       </c>
       <c r="D137">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B138">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C138">
         <v>110</v>
       </c>
       <c r="D138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B139">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C139">
         <v>120</v>
       </c>
       <c r="D139">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B140">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C140">
         <v>125</v>
       </c>
       <c r="D140">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>20</v>
       </c>
       <c r="B141">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>20</v>
       </c>
       <c r="B142">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C142">
         <v>10</v>
       </c>
       <c r="D142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>20</v>
       </c>
       <c r="B143">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C143">
         <v>20</v>
       </c>
       <c r="D143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>20</v>
       </c>
       <c r="B144">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C144">
         <v>30</v>
       </c>
       <c r="D144">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>20</v>
       </c>
       <c r="B145">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C145">
         <v>40</v>
       </c>
       <c r="D145">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>20</v>
       </c>
       <c r="B146">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C146">
         <v>50</v>
       </c>
       <c r="D146">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>20</v>
       </c>
       <c r="B147">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C147">
         <v>60</v>
       </c>
       <c r="D147">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>20</v>
       </c>
       <c r="B148">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C148">
         <v>70</v>
       </c>
       <c r="D148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>20</v>
       </c>
       <c r="B149">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C149">
         <v>80</v>
       </c>
       <c r="D149">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>20</v>
       </c>
       <c r="B150">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C150">
         <v>90</v>
       </c>
       <c r="D150">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>20</v>
       </c>
       <c r="B151">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C151">
         <v>100</v>
       </c>
       <c r="D151">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>20</v>
       </c>
       <c r="B152">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C152">
         <v>110</v>
       </c>
       <c r="D152">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>20</v>
       </c>
       <c r="B153">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C153">
         <v>120</v>
       </c>
       <c r="D153">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>20</v>
       </c>
       <c r="B154">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C154">
         <v>125</v>
       </c>
       <c r="D154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B155">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B156">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C156">
         <v>10</v>
       </c>
       <c r="D156">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B157">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C157">
         <v>20</v>
       </c>
       <c r="D157">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B158">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C158">
         <v>30</v>
       </c>
       <c r="D158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B159">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C159">
         <v>40</v>
       </c>
       <c r="D159">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B160">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C160">
         <v>50</v>
       </c>
       <c r="D160">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B161">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C161">
         <v>60</v>
       </c>
       <c r="D161">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B162">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C162">
         <v>70</v>
       </c>
       <c r="D162">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B163">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C163">
         <v>80</v>
       </c>
       <c r="D163">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B164">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C164">
         <v>90</v>
       </c>
       <c r="D164">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B165">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C165">
         <v>100</v>
       </c>
       <c r="D165">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B166">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C166">
         <v>110</v>
       </c>
       <c r="D166">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B167">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C167">
         <v>120</v>
       </c>
       <c r="D167">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B168">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C168">
         <v>125</v>
       </c>
       <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>40</v>
+      </c>
+      <c r="B169">
+        <v>180</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>40</v>
+      </c>
+      <c r="B170">
+        <v>180</v>
+      </c>
+      <c r="C170">
         <v>10</v>
       </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
+        <v>40</v>
+      </c>
+      <c r="B171">
+        <v>180</v>
+      </c>
+      <c r="C171">
+        <v>20</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>40</v>
+      </c>
+      <c r="B172">
+        <v>180</v>
+      </c>
+      <c r="C172">
+        <v>30</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>40</v>
+      </c>
+      <c r="B173">
+        <v>180</v>
+      </c>
+      <c r="C173">
+        <v>40</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>40</v>
+      </c>
+      <c r="B174">
+        <v>180</v>
+      </c>
+      <c r="C174">
+        <v>50</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>40</v>
+      </c>
+      <c r="B175">
+        <v>180</v>
+      </c>
+      <c r="C175">
+        <v>60</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>40</v>
+      </c>
+      <c r="B176">
+        <v>180</v>
+      </c>
+      <c r="C176">
+        <v>70</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>40</v>
+      </c>
+      <c r="B177">
+        <v>180</v>
+      </c>
+      <c r="C177">
+        <v>80</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>40</v>
+      </c>
+      <c r="B178">
+        <v>180</v>
+      </c>
+      <c r="C178">
+        <v>90</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>40</v>
+      </c>
+      <c r="B179">
+        <v>180</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>40</v>
+      </c>
+      <c r="B180">
+        <v>180</v>
+      </c>
+      <c r="C180">
+        <v>110</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>40</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>120</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>40</v>
+      </c>
+      <c r="B182">
+        <v>180</v>
+      </c>
+      <c r="C182">
+        <v>125</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
+        <v>50</v>
+      </c>
+      <c r="B183">
+        <v>180</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
+        <v>50</v>
+      </c>
+      <c r="B184">
+        <v>180</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185">
+        <v>50</v>
+      </c>
+      <c r="B185">
+        <v>180</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186">
+        <v>50</v>
+      </c>
+      <c r="B186">
+        <v>180</v>
+      </c>
+      <c r="C186">
+        <v>30</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187">
+        <v>50</v>
+      </c>
+      <c r="B187">
+        <v>180</v>
+      </c>
+      <c r="C187">
+        <v>40</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188">
+        <v>50</v>
+      </c>
+      <c r="B188">
+        <v>180</v>
+      </c>
+      <c r="C188">
+        <v>50</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189">
+        <v>50</v>
+      </c>
+      <c r="B189">
+        <v>180</v>
+      </c>
+      <c r="C189">
+        <v>60</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190">
+        <v>50</v>
+      </c>
+      <c r="B190">
+        <v>180</v>
+      </c>
+      <c r="C190">
+        <v>70</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191">
+        <v>50</v>
+      </c>
+      <c r="B191">
+        <v>180</v>
+      </c>
+      <c r="C191">
+        <v>80</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192">
+        <v>50</v>
+      </c>
+      <c r="B192">
+        <v>180</v>
+      </c>
+      <c r="C192">
+        <v>90</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193">
+        <v>50</v>
+      </c>
+      <c r="B193">
+        <v>180</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194">
+        <v>50</v>
+      </c>
+      <c r="B194">
+        <v>180</v>
+      </c>
+      <c r="C194">
+        <v>110</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
+        <v>50</v>
+      </c>
+      <c r="B195">
+        <v>180</v>
+      </c>
+      <c r="C195">
+        <v>120</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196">
+        <v>50</v>
+      </c>
+      <c r="B196">
+        <v>180</v>
+      </c>
+      <c r="C196">
+        <v>125</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197">
+        <v>60</v>
+      </c>
+      <c r="B197">
+        <v>180</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198">
+        <v>60</v>
+      </c>
+      <c r="B198">
+        <v>180</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199">
+        <v>60</v>
+      </c>
+      <c r="B199">
+        <v>180</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200">
+        <v>60</v>
+      </c>
+      <c r="B200">
+        <v>180</v>
+      </c>
+      <c r="C200">
+        <v>30</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201">
+        <v>60</v>
+      </c>
+      <c r="B201">
+        <v>180</v>
+      </c>
+      <c r="C201">
+        <v>40</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202">
+        <v>60</v>
+      </c>
+      <c r="B202">
+        <v>180</v>
+      </c>
+      <c r="C202">
+        <v>50</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203">
+        <v>60</v>
+      </c>
+      <c r="B203">
+        <v>180</v>
+      </c>
+      <c r="C203">
+        <v>60</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204">
+        <v>60</v>
+      </c>
+      <c r="B204">
+        <v>180</v>
+      </c>
+      <c r="C204">
+        <v>70</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205">
+        <v>60</v>
+      </c>
+      <c r="B205">
+        <v>180</v>
+      </c>
+      <c r="C205">
+        <v>80</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206">
+        <v>60</v>
+      </c>
+      <c r="B206">
+        <v>180</v>
+      </c>
+      <c r="C206">
+        <v>90</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207">
+        <v>60</v>
+      </c>
+      <c r="B207">
+        <v>180</v>
+      </c>
+      <c r="C207">
+        <v>100</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208">
+        <v>60</v>
+      </c>
+      <c r="B208">
+        <v>180</v>
+      </c>
+      <c r="C208">
+        <v>110</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209">
+        <v>60</v>
+      </c>
+      <c r="B209">
+        <v>180</v>
+      </c>
+      <c r="C209">
+        <v>120</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210">
+        <v>60</v>
+      </c>
+      <c r="B210">
+        <v>180</v>
+      </c>
+      <c r="C210">
+        <v>125</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211">
+        <v>70</v>
+      </c>
+      <c r="B211">
+        <v>180</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212">
+        <v>70</v>
+      </c>
+      <c r="B212">
+        <v>180</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213">
+        <v>70</v>
+      </c>
+      <c r="B213">
+        <v>180</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214">
+        <v>70</v>
+      </c>
+      <c r="B214">
+        <v>180</v>
+      </c>
+      <c r="C214">
+        <v>30</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215">
+        <v>70</v>
+      </c>
+      <c r="B215">
+        <v>180</v>
+      </c>
+      <c r="C215">
+        <v>40</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216">
+        <v>70</v>
+      </c>
+      <c r="B216">
+        <v>180</v>
+      </c>
+      <c r="C216">
+        <v>50</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217">
+        <v>70</v>
+      </c>
+      <c r="B217">
+        <v>180</v>
+      </c>
+      <c r="C217">
+        <v>60</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218">
+        <v>70</v>
+      </c>
+      <c r="B218">
+        <v>180</v>
+      </c>
+      <c r="C218">
+        <v>70</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219">
+        <v>70</v>
+      </c>
+      <c r="B219">
+        <v>180</v>
+      </c>
+      <c r="C219">
+        <v>80</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220">
+        <v>70</v>
+      </c>
+      <c r="B220">
+        <v>180</v>
+      </c>
+      <c r="C220">
+        <v>90</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221">
+        <v>70</v>
+      </c>
+      <c r="B221">
+        <v>180</v>
+      </c>
+      <c r="C221">
+        <v>100</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222">
+        <v>70</v>
+      </c>
+      <c r="B222">
+        <v>180</v>
+      </c>
+      <c r="C222">
+        <v>110</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223">
+        <v>70</v>
+      </c>
+      <c r="B223">
+        <v>180</v>
+      </c>
+      <c r="C223">
+        <v>120</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224">
+        <v>70</v>
+      </c>
+      <c r="B224">
+        <v>180</v>
+      </c>
+      <c r="C224">
+        <v>125</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225">
+        <v>80</v>
+      </c>
+      <c r="B225">
+        <v>180</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226">
+        <v>80</v>
+      </c>
+      <c r="B226">
+        <v>180</v>
+      </c>
+      <c r="C226">
+        <v>10</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227">
+        <v>80</v>
+      </c>
+      <c r="B227">
+        <v>180</v>
+      </c>
+      <c r="C227">
+        <v>20</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228">
+        <v>80</v>
+      </c>
+      <c r="B228">
+        <v>180</v>
+      </c>
+      <c r="C228">
+        <v>30</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229">
+        <v>80</v>
+      </c>
+      <c r="B229">
+        <v>180</v>
+      </c>
+      <c r="C229">
+        <v>40</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230">
+        <v>80</v>
+      </c>
+      <c r="B230">
+        <v>180</v>
+      </c>
+      <c r="C230">
+        <v>50</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231">
+        <v>80</v>
+      </c>
+      <c r="B231">
+        <v>180</v>
+      </c>
+      <c r="C231">
+        <v>60</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232">
+        <v>80</v>
+      </c>
+      <c r="B232">
+        <v>180</v>
+      </c>
+      <c r="C232">
+        <v>70</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233">
+        <v>80</v>
+      </c>
+      <c r="B233">
+        <v>180</v>
+      </c>
+      <c r="C233">
+        <v>80</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234">
+        <v>80</v>
+      </c>
+      <c r="B234">
+        <v>180</v>
+      </c>
+      <c r="C234">
+        <v>90</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235">
+        <v>80</v>
+      </c>
+      <c r="B235">
+        <v>180</v>
+      </c>
+      <c r="C235">
+        <v>100</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236">
+        <v>80</v>
+      </c>
+      <c r="B236">
+        <v>180</v>
+      </c>
+      <c r="C236">
+        <v>110</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237">
+        <v>80</v>
+      </c>
+      <c r="B237">
+        <v>180</v>
+      </c>
+      <c r="C237">
+        <v>120</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238">
+        <v>80</v>
+      </c>
+      <c r="B238">
+        <v>180</v>
+      </c>
+      <c r="C238">
+        <v>125</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239">
+        <v>90</v>
+      </c>
+      <c r="B239">
+        <v>180</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240">
+        <v>90</v>
+      </c>
+      <c r="B240">
+        <v>180</v>
+      </c>
+      <c r="C240">
+        <v>10</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241">
+        <v>90</v>
+      </c>
+      <c r="B241">
+        <v>180</v>
+      </c>
+      <c r="C241">
+        <v>20</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242">
+        <v>90</v>
+      </c>
+      <c r="B242">
+        <v>180</v>
+      </c>
+      <c r="C242">
+        <v>30</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243">
+        <v>90</v>
+      </c>
+      <c r="B243">
+        <v>180</v>
+      </c>
+      <c r="C243">
+        <v>40</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244">
+        <v>90</v>
+      </c>
+      <c r="B244">
+        <v>180</v>
+      </c>
+      <c r="C244">
+        <v>50</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245">
+        <v>90</v>
+      </c>
+      <c r="B245">
+        <v>180</v>
+      </c>
+      <c r="C245">
+        <v>60</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246">
+        <v>90</v>
+      </c>
+      <c r="B246">
+        <v>180</v>
+      </c>
+      <c r="C246">
+        <v>70</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247">
+        <v>90</v>
+      </c>
+      <c r="B247">
+        <v>180</v>
+      </c>
+      <c r="C247">
+        <v>80</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248">
+        <v>90</v>
+      </c>
+      <c r="B248">
+        <v>180</v>
+      </c>
+      <c r="C248">
+        <v>90</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249">
+        <v>90</v>
+      </c>
+      <c r="B249">
+        <v>180</v>
+      </c>
+      <c r="C249">
+        <v>100</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250">
+        <v>90</v>
+      </c>
+      <c r="B250">
+        <v>180</v>
+      </c>
+      <c r="C250">
+        <v>110</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251">
+        <v>90</v>
+      </c>
+      <c r="B251">
+        <v>180</v>
+      </c>
+      <c r="C251">
+        <v>120</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252">
+        <v>90</v>
+      </c>
+      <c r="B252">
+        <v>180</v>
+      </c>
+      <c r="C252">
+        <v>125</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253">
+        <v>100</v>
+      </c>
+      <c r="B253">
+        <v>180</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254">
+        <v>100</v>
+      </c>
+      <c r="B254">
+        <v>180</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255">
+        <v>100</v>
+      </c>
+      <c r="B255">
+        <v>180</v>
+      </c>
+      <c r="C255">
+        <v>20</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256">
+        <v>100</v>
+      </c>
+      <c r="B256">
+        <v>180</v>
+      </c>
+      <c r="C256">
+        <v>30</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257">
+        <v>100</v>
+      </c>
+      <c r="B257">
+        <v>180</v>
+      </c>
+      <c r="C257">
+        <v>40</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258">
+        <v>100</v>
+      </c>
+      <c r="B258">
+        <v>180</v>
+      </c>
+      <c r="C258">
+        <v>50</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259">
+        <v>100</v>
+      </c>
+      <c r="B259">
+        <v>180</v>
+      </c>
+      <c r="C259">
+        <v>60</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260">
+        <v>100</v>
+      </c>
+      <c r="B260">
+        <v>180</v>
+      </c>
+      <c r="C260">
+        <v>70</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261">
+        <v>100</v>
+      </c>
+      <c r="B261">
+        <v>180</v>
+      </c>
+      <c r="C261">
+        <v>80</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262">
+        <v>100</v>
+      </c>
+      <c r="B262">
+        <v>180</v>
+      </c>
+      <c r="C262">
+        <v>90</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263">
+        <v>100</v>
+      </c>
+      <c r="B263">
+        <v>180</v>
+      </c>
+      <c r="C263">
+        <v>100</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264">
+        <v>100</v>
+      </c>
+      <c r="B264">
+        <v>180</v>
+      </c>
+      <c r="C264">
+        <v>110</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265">
+        <v>100</v>
+      </c>
+      <c r="B265">
+        <v>180</v>
+      </c>
+      <c r="C265">
+        <v>120</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266">
+        <v>100</v>
+      </c>
+      <c r="B266">
+        <v>180</v>
+      </c>
+      <c r="C266">
+        <v>125</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267">
+        <v>115</v>
+      </c>
+      <c r="B267">
+        <v>180</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268">
+        <v>115</v>
+      </c>
+      <c r="B268">
+        <v>180</v>
+      </c>
+      <c r="C268">
+        <v>10</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269">
+        <v>115</v>
+      </c>
+      <c r="B269">
+        <v>180</v>
+      </c>
+      <c r="C269">
+        <v>20</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270">
+        <v>115</v>
+      </c>
+      <c r="B270">
+        <v>180</v>
+      </c>
+      <c r="C270">
+        <v>30</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271">
+        <v>115</v>
+      </c>
+      <c r="B271">
+        <v>180</v>
+      </c>
+      <c r="C271">
+        <v>40</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272">
+        <v>115</v>
+      </c>
+      <c r="B272">
+        <v>180</v>
+      </c>
+      <c r="C272">
+        <v>50</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273">
+        <v>115</v>
+      </c>
+      <c r="B273">
+        <v>180</v>
+      </c>
+      <c r="C273">
+        <v>60</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274">
+        <v>115</v>
+      </c>
+      <c r="B274">
+        <v>180</v>
+      </c>
+      <c r="C274">
+        <v>70</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275">
+        <v>115</v>
+      </c>
+      <c r="B275">
+        <v>180</v>
+      </c>
+      <c r="C275">
+        <v>80</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276">
+        <v>115</v>
+      </c>
+      <c r="B276">
+        <v>180</v>
+      </c>
+      <c r="C276">
+        <v>90</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277">
+        <v>115</v>
+      </c>
+      <c r="B277">
+        <v>180</v>
+      </c>
+      <c r="C277">
+        <v>100</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278">
+        <v>115</v>
+      </c>
+      <c r="B278">
+        <v>180</v>
+      </c>
+      <c r="C278">
+        <v>110</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279">
+        <v>115</v>
+      </c>
+      <c r="B279">
+        <v>180</v>
+      </c>
+      <c r="C279">
+        <v>120</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280">
+        <v>115</v>
+      </c>
+      <c r="B280">
+        <v>180</v>
+      </c>
+      <c r="C280">
+        <v>125</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281">
+        <v>125</v>
+      </c>
+      <c r="B281">
+        <v>180</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282">
+        <v>125</v>
+      </c>
+      <c r="B282">
+        <v>180</v>
+      </c>
+      <c r="C282">
+        <v>10</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283">
+        <v>125</v>
+      </c>
+      <c r="B283">
+        <v>180</v>
+      </c>
+      <c r="C283">
+        <v>20</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284">
+        <v>125</v>
+      </c>
+      <c r="B284">
+        <v>180</v>
+      </c>
+      <c r="C284">
+        <v>30</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285">
+        <v>125</v>
+      </c>
+      <c r="B285">
+        <v>180</v>
+      </c>
+      <c r="C285">
+        <v>40</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286">
+        <v>125</v>
+      </c>
+      <c r="B286">
+        <v>180</v>
+      </c>
+      <c r="C286">
+        <v>50</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287">
+        <v>125</v>
+      </c>
+      <c r="B287">
+        <v>180</v>
+      </c>
+      <c r="C287">
+        <v>60</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288">
+        <v>125</v>
+      </c>
+      <c r="B288">
+        <v>180</v>
+      </c>
+      <c r="C288">
+        <v>70</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289">
+        <v>125</v>
+      </c>
+      <c r="B289">
+        <v>180</v>
+      </c>
+      <c r="C289">
+        <v>80</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290">
+        <v>125</v>
+      </c>
+      <c r="B290">
+        <v>180</v>
+      </c>
+      <c r="C290">
+        <v>90</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291">
+        <v>125</v>
+      </c>
+      <c r="B291">
+        <v>180</v>
+      </c>
+      <c r="C291">
+        <v>100</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292">
+        <v>125</v>
+      </c>
+      <c r="B292">
+        <v>180</v>
+      </c>
+      <c r="C292">
+        <v>110</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293">
+        <v>125</v>
+      </c>
+      <c r="B293">
+        <v>180</v>
+      </c>
+      <c r="C293">
+        <v>120</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294">
+        <v>125</v>
+      </c>
+      <c r="B294">
+        <v>180</v>
+      </c>
+      <c r="C294">
+        <v>125</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D168">
-    <sortCondition descending="1" ref="A1:A168"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D294">
+    <sortCondition ref="A1:A294"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4472,9 +6241,9 @@
       <selection sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>10</v>
       </c>
@@ -4488,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4502,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4516,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10</v>
       </c>
@@ -4530,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10</v>
       </c>
@@ -4544,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>12</v>
       </c>
@@ -4558,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>12</v>
       </c>
@@ -4572,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>12</v>
       </c>
@@ -4586,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>12</v>
       </c>
@@ -4600,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>12</v>
       </c>
@@ -4614,7 +6383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>15</v>
       </c>
@@ -4628,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>15</v>
       </c>
@@ -4642,7 +6411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>15</v>
       </c>
@@ -4656,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4670,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4684,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>17</v>
       </c>
@@ -4698,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4712,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4726,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4740,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4754,7 +6523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4768,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4782,7 +6551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4796,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4810,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
@@ -4824,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>22</v>
       </c>
@@ -4838,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>22</v>
       </c>
@@ -4852,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>22</v>
       </c>
@@ -4866,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>22</v>
       </c>
@@ -4880,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>22</v>
       </c>
@@ -4894,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>25</v>
       </c>
@@ -4908,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>25</v>
       </c>
@@ -4922,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>25</v>
       </c>
@@ -4936,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>25</v>
       </c>
@@ -4950,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>25</v>
       </c>
@@ -4964,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>29</v>
       </c>
@@ -4978,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>29</v>
       </c>
@@ -4992,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>29</v>
       </c>
@@ -5006,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>29</v>
       </c>
@@ -5020,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>29</v>
       </c>
@@ -5047,9 +6816,9 @@
       <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>50</v>
       </c>
@@ -5063,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>50</v>
       </c>
@@ -5077,7 +6846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>50</v>
       </c>
@@ -5091,7 +6860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>50</v>
       </c>
@@ -5105,7 +6874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>50</v>
       </c>
@@ -5119,7 +6888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>50</v>
       </c>
@@ -5133,7 +6902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>50</v>
       </c>
@@ -5147,7 +6916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>50</v>
       </c>
@@ -5161,7 +6930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>50</v>
       </c>
@@ -5175,7 +6944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>50</v>
       </c>
@@ -5189,7 +6958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>50</v>
       </c>
@@ -5203,7 +6972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>50</v>
       </c>
@@ -5217,7 +6986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>50</v>
       </c>
@@ -5231,7 +7000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>50</v>
       </c>
@@ -5245,7 +7014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>50</v>
       </c>
@@ -5259,7 +7028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>50</v>
       </c>
@@ -5273,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>50</v>
       </c>
@@ -5287,7 +7056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>50</v>
       </c>
@@ -5301,7 +7070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>50</v>
       </c>
@@ -5315,7 +7084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>50</v>
       </c>
@@ -5329,7 +7098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>50</v>
       </c>
@@ -5343,7 +7112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>50</v>
       </c>
@@ -5357,7 +7126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>50</v>
       </c>
@@ -5371,7 +7140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>50</v>
       </c>
@@ -5385,7 +7154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>50</v>
       </c>
@@ -5399,7 +7168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>55</v>
       </c>
@@ -5413,7 +7182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>55</v>
       </c>
@@ -5427,7 +7196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>55</v>
       </c>
@@ -5441,7 +7210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>55</v>
       </c>
@@ -5455,7 +7224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>55</v>
       </c>
@@ -5469,7 +7238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>55</v>
       </c>
@@ -5483,7 +7252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>55</v>
       </c>
@@ -5497,7 +7266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>55</v>
       </c>
@@ -5511,7 +7280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>55</v>
       </c>
@@ -5525,7 +7294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>55</v>
       </c>
@@ -5539,7 +7308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>55</v>
       </c>
@@ -5553,7 +7322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>55</v>
       </c>
@@ -5567,7 +7336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>55</v>
       </c>
@@ -5581,7 +7350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>55</v>
       </c>
@@ -5595,7 +7364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>55</v>
       </c>
@@ -5609,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>55</v>
       </c>
@@ -5623,7 +7392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>55</v>
       </c>
@@ -5637,7 +7406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>55</v>
       </c>
@@ -5651,7 +7420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>55</v>
       </c>
@@ -5665,7 +7434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>55</v>
       </c>
@@ -5679,7 +7448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>55</v>
       </c>
@@ -5693,7 +7462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>55</v>
       </c>
@@ -5707,7 +7476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>55</v>
       </c>
@@ -5721,7 +7490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>55</v>
       </c>
@@ -5735,7 +7504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>55</v>
       </c>
@@ -5749,7 +7518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>60</v>
       </c>
@@ -5763,7 +7532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>60</v>
       </c>
@@ -5777,7 +7546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>60</v>
       </c>
@@ -5791,7 +7560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>60</v>
       </c>
@@ -5805,7 +7574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>60</v>
       </c>
@@ -5819,7 +7588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>60</v>
       </c>
@@ -5833,7 +7602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>60</v>
       </c>
@@ -5847,7 +7616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>60</v>
       </c>
@@ -5861,7 +7630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>60</v>
       </c>
@@ -5875,7 +7644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>60</v>
       </c>
@@ -5889,7 +7658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5903,7 +7672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5917,7 +7686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>60</v>
       </c>
@@ -5931,7 +7700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>60</v>
       </c>
@@ -5945,7 +7714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>60</v>
       </c>
@@ -5959,7 +7728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>60</v>
       </c>
@@ -5973,7 +7742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>60</v>
       </c>
@@ -5987,7 +7756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>60</v>
       </c>
@@ -6001,7 +7770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>60</v>
       </c>
@@ -6015,7 +7784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>60</v>
       </c>
@@ -6029,7 +7798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>60</v>
       </c>
@@ -6043,7 +7812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>60</v>
       </c>
@@ -6057,7 +7826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>60</v>
       </c>
@@ -6071,7 +7840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>60</v>
       </c>
@@ -6085,7 +7854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>60</v>
       </c>
@@ -6099,7 +7868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>65</v>
       </c>
@@ -6113,7 +7882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>65</v>
       </c>
@@ -6127,7 +7896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>65</v>
       </c>
@@ -6141,7 +7910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>65</v>
       </c>
@@ -6155,7 +7924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>65</v>
       </c>
@@ -6169,7 +7938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>65</v>
       </c>
@@ -6183,7 +7952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>65</v>
       </c>
@@ -6197,7 +7966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>65</v>
       </c>
@@ -6211,7 +7980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>65</v>
       </c>
@@ -6225,7 +7994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>65</v>
       </c>
@@ -6239,7 +8008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>65</v>
       </c>
@@ -6253,7 +8022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>65</v>
       </c>
@@ -6267,7 +8036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>65</v>
       </c>
@@ -6281,7 +8050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>65</v>
       </c>
@@ -6295,7 +8064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>65</v>
       </c>
@@ -6309,7 +8078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>65</v>
       </c>
@@ -6323,7 +8092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>65</v>
       </c>
@@ -6337,7 +8106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>65</v>
       </c>
@@ -6351,7 +8120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>65</v>
       </c>
@@ -6365,7 +8134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>65</v>
       </c>
@@ -6379,7 +8148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>65</v>
       </c>
@@ -6393,7 +8162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>65</v>
       </c>
@@ -6407,7 +8176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>65</v>
       </c>
@@ -6421,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>65</v>
       </c>
@@ -6435,7 +8204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>65</v>
       </c>
@@ -6449,7 +8218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>70</v>
       </c>
@@ -6463,7 +8232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>70</v>
       </c>
@@ -6477,7 +8246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>70</v>
       </c>
@@ -6491,7 +8260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>70</v>
       </c>
@@ -6505,7 +8274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>70</v>
       </c>
@@ -6519,7 +8288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>70</v>
       </c>
@@ -6533,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>70</v>
       </c>
@@ -6547,7 +8316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>70</v>
       </c>
@@ -6561,7 +8330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>70</v>
       </c>
@@ -6575,7 +8344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>70</v>
       </c>
@@ -6589,7 +8358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>70</v>
       </c>
@@ -6603,7 +8372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>70</v>
       </c>
@@ -6617,7 +8386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>70</v>
       </c>
@@ -6631,7 +8400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>70</v>
       </c>
@@ -6645,7 +8414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>70</v>
       </c>
@@ -6659,7 +8428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>70</v>
       </c>
@@ -6673,7 +8442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>70</v>
       </c>
@@ -6687,7 +8456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>70</v>
       </c>
@@ -6701,7 +8470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>70</v>
       </c>
@@ -6715,7 +8484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>70</v>
       </c>
@@ -6729,7 +8498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>70</v>
       </c>
@@ -6743,7 +8512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>70</v>
       </c>
@@ -6757,7 +8526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>70</v>
       </c>
@@ -6771,7 +8540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>70</v>
       </c>
@@ -6785,7 +8554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>70</v>
       </c>
@@ -6799,7 +8568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>75</v>
       </c>
@@ -6813,7 +8582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>75</v>
       </c>
@@ -6827,7 +8596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>75</v>
       </c>
@@ -6841,7 +8610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>75</v>
       </c>
@@ -6855,7 +8624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>75</v>
       </c>
@@ -6869,7 +8638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>75</v>
       </c>
@@ -6883,7 +8652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>75</v>
       </c>
@@ -6897,7 +8666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>75</v>
       </c>
@@ -6911,7 +8680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>75</v>
       </c>
@@ -6925,7 +8694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>75</v>
       </c>
@@ -6939,7 +8708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>75</v>
       </c>
@@ -6953,7 +8722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>75</v>
       </c>
@@ -6967,7 +8736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>75</v>
       </c>
@@ -6981,7 +8750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>75</v>
       </c>
@@ -6995,7 +8764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>75</v>
       </c>
@@ -7009,7 +8778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>75</v>
       </c>
@@ -7023,7 +8792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>75</v>
       </c>
@@ -7037,7 +8806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>75</v>
       </c>
@@ -7051,7 +8820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>75</v>
       </c>
@@ -7065,7 +8834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>75</v>
       </c>
@@ -7079,7 +8848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>75</v>
       </c>
@@ -7093,7 +8862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>75</v>
       </c>
@@ -7107,7 +8876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>75</v>
       </c>
@@ -7121,7 +8890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>75</v>
       </c>
@@ -7135,7 +8904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>75</v>
       </c>
@@ -7149,7 +8918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>80</v>
       </c>
@@ -7163,7 +8932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>80</v>
       </c>
@@ -7177,7 +8946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>80</v>
       </c>
@@ -7191,7 +8960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>80</v>
       </c>
@@ -7205,7 +8974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>80</v>
       </c>
@@ -7219,7 +8988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>80</v>
       </c>
@@ -7233,7 +9002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>80</v>
       </c>
@@ -7247,7 +9016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>80</v>
       </c>
@@ -7261,7 +9030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>80</v>
       </c>
@@ -7275,7 +9044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>80</v>
       </c>
@@ -7289,7 +9058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>80</v>
       </c>
@@ -7303,7 +9072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>80</v>
       </c>
@@ -7317,7 +9086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>80</v>
       </c>
@@ -7331,7 +9100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>80</v>
       </c>
@@ -7345,7 +9114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>80</v>
       </c>
@@ -7359,7 +9128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>80</v>
       </c>
@@ -7373,7 +9142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>80</v>
       </c>
@@ -7387,7 +9156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>80</v>
       </c>
@@ -7401,7 +9170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>80</v>
       </c>
@@ -7415,7 +9184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>80</v>
       </c>
@@ -7429,7 +9198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>80</v>
       </c>
@@ -7443,7 +9212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>80</v>
       </c>
@@ -7457,7 +9226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>80</v>
       </c>
@@ -7471,7 +9240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>80</v>
       </c>
@@ -7485,7 +9254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>80</v>
       </c>
@@ -7512,9 +9281,9 @@
       <selection activeCell="D20" sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>10</v>
       </c>
@@ -7528,7 +9297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10</v>
       </c>
@@ -7542,7 +9311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
@@ -7556,7 +9325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10</v>
       </c>
@@ -7570,7 +9339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>15</v>
       </c>
@@ -7584,7 +9353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>15</v>
       </c>
@@ -7598,7 +9367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>15</v>
       </c>
@@ -7612,7 +9381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>15</v>
       </c>
@@ -7626,7 +9395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -7640,7 +9409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -7654,7 +9423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -7668,7 +9437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -7682,7 +9451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>25</v>
       </c>
@@ -7696,7 +9465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>25</v>
       </c>
@@ -7710,7 +9479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>25</v>
       </c>
@@ -7724,7 +9493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>25</v>
       </c>
@@ -7738,7 +9507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>30</v>
       </c>
@@ -7752,7 +9521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>30</v>
       </c>
@@ -7766,7 +9535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>30</v>
       </c>
@@ -7780,7 +9549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>30</v>
       </c>
